--- a/data/raw/ams_jena_results-co2-S19-1a_2020-04-29/Rost_58.xlsx
+++ b/data/raw/ams_jena_results-co2-S19-1a_2020-04-29/Rost_58.xlsx
@@ -637,13 +637,13 @@
     <t>single measurements of the respective sample, plus a contribution from the calibration by the standards</t>
   </si>
   <si>
-    <t>7_GRpp_comp_0-10</t>
-  </si>
-  <si>
-    <t>16_ANpp_comp_0-10</t>
-  </si>
-  <si>
-    <t>25_BSpp_comp_0-10</t>
+    <t>7_GRpp_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>16_ANpp_comp_0-10_2019_a</t>
+  </si>
+  <si>
+    <t>25_BSpp_comp_0-10_2019_a</t>
   </si>
 </sst>
 </file>
@@ -1165,13 +1165,13 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
